--- a/data/trans_orig/P32A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4612</v>
+        <v>4710</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003188171344400348</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01591494657198422</v>
+        <v>0.01625206314539108</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4398</v>
+        <v>5046</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002216513419672996</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0105502164715885</v>
+        <v>0.01210620545784606</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>288883</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285195</v>
+        <v>285097</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>289807</v>
@@ -816,7 +816,7 @@
         <v>0.9968118286555997</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9840850534280158</v>
+        <v>0.9837479368546085</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>415926</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>412452</v>
+        <v>411804</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>416850</v>
@@ -850,7 +850,7 @@
         <v>0.997783486580327</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9894497835284115</v>
+        <v>0.9878937945421538</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,19 +945,19 @@
         <v>3095</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>956</v>
+        <v>969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7532</v>
+        <v>8435</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01386387039046797</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004283473239633492</v>
+        <v>0.004339392314087645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03374398246045884</v>
+        <v>0.03778912656081055</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>3095</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8737</v>
+        <v>8266</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008206816823809969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00257832520679389</v>
+        <v>0.002556894783884025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02317113028691269</v>
+        <v>0.02192076710722412</v>
       </c>
     </row>
     <row r="8">
@@ -1008,19 +1008,19 @@
         <v>220116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>215679</v>
+        <v>214776</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>222255</v>
+        <v>222242</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.986136129609532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.966256017539541</v>
+        <v>0.9622108734391888</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9957165267603665</v>
+        <v>0.9956606076859124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>150</v>
@@ -1042,19 +1042,19 @@
         <v>373978</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>368336</v>
+        <v>368807</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>376101</v>
+        <v>376109</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.99179318317619</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9768288697130851</v>
+        <v>0.9780792328927758</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9974216747932061</v>
+        <v>0.997443105216116</v>
       </c>
     </row>
     <row r="9">
@@ -1146,19 +1146,19 @@
         <v>4590</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1811</v>
+        <v>1712</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9948</v>
+        <v>9855</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01354865904674003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005344741778826991</v>
+        <v>0.00505402519490146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02936552968019556</v>
+        <v>0.02908968921050615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>4590</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1714</v>
+        <v>1618</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10170</v>
+        <v>10476</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01145913658877063</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004278697810537312</v>
+        <v>0.004039957009263142</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02539082517853643</v>
+        <v>0.02615391739863387</v>
       </c>
     </row>
     <row r="11">
@@ -1209,19 +1209,19 @@
         <v>334184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>328826</v>
+        <v>328919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>336963</v>
+        <v>337062</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9864513409532599</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9706344703198044</v>
+        <v>0.970910310789494</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.994655258221173</v>
+        <v>0.9949459748050986</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -1243,19 +1243,19 @@
         <v>395958</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>390378</v>
+        <v>390072</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>398834</v>
+        <v>398930</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9885408634112294</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9746091748214636</v>
+        <v>0.9738460826013666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9957213021894626</v>
+        <v>0.9959600429907369</v>
       </c>
     </row>
     <row r="12">
@@ -1347,19 +1347,19 @@
         <v>9422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4736</v>
+        <v>4690</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17464</v>
+        <v>17874</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01407165182779016</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007073777608009625</v>
+        <v>0.007005212021580182</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0260832311991397</v>
+        <v>0.0266965553481051</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>9422</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4518</v>
+        <v>4693</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17159</v>
+        <v>17737</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0109315578468498</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005242557418636923</v>
+        <v>0.005444696395604401</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01990934725959885</v>
+        <v>0.02058007985704628</v>
       </c>
     </row>
     <row r="14">
@@ -1410,19 +1410,19 @@
         <v>660117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>652075</v>
+        <v>651665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>664803</v>
+        <v>664849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9859283481722099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9739167688008599</v>
+        <v>0.9733034446518949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9929262223919902</v>
+        <v>0.9929947879784198</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>185</v>
@@ -1444,19 +1444,19 @@
         <v>852442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>844705</v>
+        <v>844127</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>857346</v>
+        <v>857171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9890684421531502</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9800906527404011</v>
+        <v>0.979419920142954</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9947574425813631</v>
+        <v>0.9945553036043957</v>
       </c>
     </row>
     <row r="15">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6640</v>
+        <v>7204</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009528069714901369</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03073184302240013</v>
+        <v>0.03334006306044781</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6670</v>
+        <v>6855</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01382779110688862</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04750845159209423</v>
+        <v>0.04882346108042751</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1590,19 +1590,19 @@
         <v>4000</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10218</v>
+        <v>9974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01122154756155217</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002824673989810853</v>
+        <v>0.00288198222871773</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02866644614092503</v>
+        <v>0.02797992313549396</v>
       </c>
     </row>
     <row r="17">
@@ -1619,7 +1619,7 @@
         <v>214007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>209426</v>
+        <v>208862</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>216066</v>
@@ -1628,7 +1628,7 @@
         <v>0.9904719302850986</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9692681569776014</v>
+        <v>0.9666599369395531</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1640,7 +1640,7 @@
         <v>138454</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133725</v>
+        <v>133540</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>140395</v>
@@ -1649,7 +1649,7 @@
         <v>0.9861722088931114</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9524915484079058</v>
+        <v>0.9511765389195724</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1661,19 +1661,19 @@
         <v>352461</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>346243</v>
+        <v>346487</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>355454</v>
+        <v>355434</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9887784524384479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.971333553859075</v>
+        <v>0.972020076864506</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9971753260101892</v>
+        <v>0.9971180177712823</v>
       </c>
     </row>
     <row r="18">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5912</v>
+        <v>5091</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004666027598061889</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02710879629622925</v>
+        <v>0.02334405286356143</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4789</v>
+        <v>5832</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00284571689768219</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01339280968288455</v>
+        <v>0.01630751307348786</v>
       </c>
     </row>
     <row r="20">
@@ -1841,7 +1841,7 @@
         <v>217082</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>212188</v>
+        <v>213009</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>218100</v>
@@ -1850,7 +1850,7 @@
         <v>0.9953339724019381</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9728912037037711</v>
+        <v>0.9766559471364386</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1862,7 +1862,7 @@
         <v>356593</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>352822</v>
+        <v>351779</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>357611</v>
@@ -1871,7 +1871,7 @@
         <v>0.9971542831023178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9866071903171159</v>
+        <v>0.9836924869265117</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1966,19 +1966,19 @@
         <v>20089</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12442</v>
+        <v>12620</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31353</v>
+        <v>30195</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01070306495577794</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006628952700232334</v>
+        <v>0.006723890193317796</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01670440850368603</v>
+        <v>0.01608779054923117</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1987,19 +1987,19 @@
         <v>2959</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003311710099870096</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -2008,19 +2008,19 @@
         <v>23048</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14080</v>
+        <v>15540</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33898</v>
+        <v>35712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008319238830855526</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005082194921037089</v>
+        <v>0.005609444452121297</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01223589589991709</v>
+        <v>0.01289034508107683</v>
       </c>
     </row>
     <row r="23">
@@ -2037,19 +2037,19 @@
         <v>1856819</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1845555</v>
+        <v>1846713</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1864466</v>
+        <v>1864288</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.989296935044222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9832955914963141</v>
+        <v>0.983912209450769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9933710472997677</v>
+        <v>0.9932761098066822</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>870</v>
@@ -2058,19 +2058,19 @@
         <v>890540</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>885385</v>
+        <v>885416</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>892577</v>
+        <v>893148</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9966882899001299</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9909192893621036</v>
+        <v>0.9909538819685459</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9989680730795941</v>
+        <v>0.999606759373823</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2692</v>
@@ -2079,19 +2079,19 @@
         <v>2747359</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2736509</v>
+        <v>2734695</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2756327</v>
+        <v>2754867</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9916807611691445</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9877641041000828</v>
+        <v>0.9871096549189232</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9949178050789627</v>
+        <v>0.9943905555478787</v>
       </c>
     </row>
     <row r="24">
@@ -2425,19 +2425,19 @@
         <v>5904</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2556</v>
+        <v>2611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12820</v>
+        <v>12392</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02011799029458295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008708832132578243</v>
+        <v>0.008897298465595799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04368628312525698</v>
+        <v>0.04222474801089436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4376</v>
+        <v>4015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006074276755822691</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02977711058089453</v>
+        <v>0.02732413624678424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2467,19 +2467,19 @@
         <v>6797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2769</v>
+        <v>2760</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14193</v>
+        <v>13061</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01543224473761922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006286944918733515</v>
+        <v>0.006266164057197372</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03222727280618506</v>
+        <v>0.029656318264706</v>
       </c>
     </row>
     <row r="5">
@@ -2496,19 +2496,19 @@
         <v>287563</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>280647</v>
+        <v>281075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290911</v>
+        <v>290856</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9798820097054171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.956313716874743</v>
+        <v>0.9577752519891055</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9912911678674218</v>
+        <v>0.9911027015344042</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>132</v>
@@ -2517,7 +2517,7 @@
         <v>146052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142569</v>
+        <v>142930</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>146945</v>
@@ -2526,7 +2526,7 @@
         <v>0.9939257232441773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9702228894191053</v>
+        <v>0.9726758637532152</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2538,19 +2538,19 @@
         <v>433615</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>426219</v>
+        <v>427351</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437643</v>
+        <v>437652</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9845677552623808</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.967772727193815</v>
+        <v>0.9703436817352942</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9937130550812665</v>
+        <v>0.9937338359428026</v>
       </c>
     </row>
     <row r="6">
@@ -2642,19 +2642,19 @@
         <v>4281</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14414</v>
+        <v>13346</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01688842231148581</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003627393873571118</v>
+        <v>0.003526664142279218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05686656674142129</v>
+        <v>0.05265376179447785</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6046</v>
+        <v>5961</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008346576062500626</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04242279437430185</v>
+        <v>0.04182393266631385</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2684,19 +2684,19 @@
         <v>5470</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15392</v>
+        <v>14635</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01381414753380508</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003093073682009527</v>
+        <v>0.003091569964561545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03886973237135518</v>
+        <v>0.03695969660573844</v>
       </c>
     </row>
     <row r="8">
@@ -2713,19 +2713,19 @@
         <v>249181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>239048</v>
+        <v>240116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>252543</v>
+        <v>252568</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9831115776885142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9431334332585776</v>
+        <v>0.9473462382055213</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9963726061264289</v>
+        <v>0.9964733358577208</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>128</v>
@@ -2734,7 +2734,7 @@
         <v>141325</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>136469</v>
+        <v>136554</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>142515</v>
@@ -2743,7 +2743,7 @@
         <v>0.9916534239374993</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9575772056256991</v>
+        <v>0.9581760673336862</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2755,19 +2755,19 @@
         <v>390507</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>380585</v>
+        <v>381342</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>394752</v>
+        <v>394753</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9861858524661949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.961130267628645</v>
+        <v>0.9630403033942616</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9969069263179922</v>
+        <v>0.9969084300354386</v>
       </c>
     </row>
     <row r="9">
@@ -2859,19 +2859,19 @@
         <v>13332</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7478</v>
+        <v>6671</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23884</v>
+        <v>24239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03442634284117907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01931085752226298</v>
+        <v>0.01722498917766991</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06167287525079876</v>
+        <v>0.06258978306237832</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2893,19 +2893,19 @@
         <v>13332</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7078</v>
+        <v>6930</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23694</v>
+        <v>24077</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02855983020027184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01516196854773723</v>
+        <v>0.01484467976938058</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05075741470566381</v>
+        <v>0.0515773363391725</v>
       </c>
     </row>
     <row r="11">
@@ -2922,19 +2922,19 @@
         <v>373931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>363379</v>
+        <v>363024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>379785</v>
+        <v>380592</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9655736571588209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9383271247492012</v>
+        <v>0.9374102169376217</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9806891424777371</v>
+        <v>0.9827750108223301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>73</v>
@@ -2956,19 +2956,19 @@
         <v>453479</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>443117</v>
+        <v>442734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>459733</v>
+        <v>459881</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9714401697997281</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9492425852943359</v>
+        <v>0.9484226636608273</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9848380314522627</v>
+        <v>0.9851553202306194</v>
       </c>
     </row>
     <row r="12">
@@ -3060,19 +3060,19 @@
         <v>15464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8627</v>
+        <v>9314</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24775</v>
+        <v>25458</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02343486348399417</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01307459839748689</v>
+        <v>0.01411472914394443</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03754577186355445</v>
+        <v>0.03858092728643035</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5933</v>
+        <v>6855</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008463664572620986</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02587843329807888</v>
+        <v>0.029900070263585</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -3102,19 +3102,19 @@
         <v>17404</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9617</v>
+        <v>9955</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27138</v>
+        <v>27015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01957441937129296</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.010815769568204</v>
+        <v>0.01119677964628294</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03052196117191747</v>
+        <v>0.03038378566059345</v>
       </c>
     </row>
     <row r="14">
@@ -3131,19 +3131,19 @@
         <v>644403</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>635092</v>
+        <v>634409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>651240</v>
+        <v>650553</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9765651365160058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9624542281364453</v>
+        <v>0.9614190727135694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9869254016025131</v>
+        <v>0.9858852708560556</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>207</v>
@@ -3152,7 +3152,7 @@
         <v>227332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223339</v>
+        <v>222417</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>229272</v>
@@ -3161,7 +3161,7 @@
         <v>0.9915363354273791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9741215667019211</v>
+        <v>0.9700999297364149</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3173,19 +3173,19 @@
         <v>871735</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>862001</v>
+        <v>862124</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>879522</v>
+        <v>879184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.980425580628707</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9694780388280825</v>
+        <v>0.9696162143394065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9891842304317959</v>
+        <v>0.988803220353717</v>
       </c>
     </row>
     <row r="15">
@@ -3277,19 +3277,19 @@
         <v>8930</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4708</v>
+        <v>4325</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17293</v>
+        <v>16235</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02946484514876252</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01553312568320082</v>
+        <v>0.01427127157457036</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05706005674683549</v>
+        <v>0.0535677121009815</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7083</v>
+        <v>6295</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01115522096887727</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03872576775363675</v>
+        <v>0.03441626258151288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3319,19 +3319,19 @@
         <v>10970</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5176</v>
+        <v>5955</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18557</v>
+        <v>19257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02257374108091771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01065027501309891</v>
+        <v>0.01225334480305092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03818419671690641</v>
+        <v>0.03962479016936551</v>
       </c>
     </row>
     <row r="17">
@@ -3348,19 +3348,19 @@
         <v>294144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>285781</v>
+        <v>286839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>298366</v>
+        <v>298749</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9705351548512375</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9429399432531645</v>
+        <v>0.9464322878990186</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9844668743167991</v>
+        <v>0.9857287284254297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>165</v>
@@ -3369,7 +3369,7 @@
         <v>180866</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175823</v>
+        <v>176611</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>182906</v>
@@ -3378,7 +3378,7 @@
         <v>0.9888447790311228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9612742322463634</v>
+        <v>0.9655837374184871</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3390,19 +3390,19 @@
         <v>475009</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>467422</v>
+        <v>466722</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>480803</v>
+        <v>480024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9774262589190823</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9618158032830941</v>
+        <v>0.9603752098306346</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9893497249869011</v>
+        <v>0.9877466551969494</v>
       </c>
     </row>
     <row r="18">
@@ -3494,19 +3494,19 @@
         <v>3750</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8482</v>
+        <v>8637</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02731261475096808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006649877399490889</v>
+        <v>0.006553661106091844</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06177581288469347</v>
+        <v>0.06290317329246316</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10424</v>
+        <v>10463</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01117344430848338</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0397512412216036</v>
+        <v>0.03989924857211856</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3536,19 +3536,19 @@
         <v>6680</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2742</v>
+        <v>2790</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14549</v>
+        <v>14276</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0167198576475387</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006862045482090828</v>
+        <v>0.006983893699957587</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03641349849631825</v>
+        <v>0.03573179047190551</v>
       </c>
     </row>
     <row r="20">
@@ -3565,19 +3565,19 @@
         <v>133558</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>128826</v>
+        <v>128671</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>136395</v>
+        <v>136408</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.972687385249032</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9382241871153064</v>
+        <v>0.9370968267075368</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9933501226005091</v>
+        <v>0.9934463388939082</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>245</v>
@@ -3586,7 +3586,7 @@
         <v>259306</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>251812</v>
+        <v>251773</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>262236</v>
@@ -3595,7 +3595,7 @@
         <v>0.9888265556915166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9602487587783963</v>
+        <v>0.9601007514278814</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3607,19 +3607,19 @@
         <v>392864</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>384995</v>
+        <v>385268</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>396802</v>
+        <v>396754</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9832801423524613</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9635865015036817</v>
+        <v>0.9642682095280946</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9931379545179092</v>
+        <v>0.9930161063000424</v>
       </c>
     </row>
     <row r="21">
@@ -3711,19 +3711,19 @@
         <v>51661</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38006</v>
+        <v>38235</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69448</v>
+        <v>68972</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02539309314156837</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01868139070814994</v>
+        <v>0.01879406248563554</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0341361466650954</v>
+        <v>0.03390239019586724</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -3732,19 +3732,19 @@
         <v>8993</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3992</v>
+        <v>4017</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18833</v>
+        <v>18286</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008618765849298923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003825429028184671</v>
+        <v>0.003849501648075937</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01804924179455607</v>
+        <v>0.01752506348415701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -3753,19 +3753,19 @@
         <v>60654</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45942</v>
+        <v>46422</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79007</v>
+        <v>79152</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01970645185995326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0149266216600972</v>
+        <v>0.01508262136113621</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02566936399848475</v>
+        <v>0.02571663654278571</v>
       </c>
     </row>
     <row r="23">
@@ -3782,19 +3782,19 @@
         <v>1982780</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1964993</v>
+        <v>1965469</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1996435</v>
+        <v>1996206</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9746069068584317</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9658638533349048</v>
+        <v>0.9660976098041325</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9813186092918502</v>
+        <v>0.9812059375143644</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>950</v>
@@ -3803,19 +3803,19 @@
         <v>1034429</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1024589</v>
+        <v>1025136</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1039430</v>
+        <v>1039405</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9913812341507011</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.981950758205444</v>
+        <v>0.9824749365158431</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9961745709718154</v>
+        <v>0.9961504983519242</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2815</v>
@@ -3824,19 +3824,19 @@
         <v>3017208</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2998855</v>
+        <v>2998710</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3031920</v>
+        <v>3031440</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9802935481400468</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9743306360015155</v>
+        <v>0.9742833634572143</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9850733783399029</v>
+        <v>0.984917378638864</v>
       </c>
     </row>
     <row r="24">
@@ -4170,19 +4170,19 @@
         <v>3012</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7901</v>
+        <v>8337</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01043067681774251</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003305110846057465</v>
+        <v>0.003307751100249394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02736022117282408</v>
+        <v>0.02887161134918344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10076</v>
+        <v>10403</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01845956418315478</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06584125245234523</v>
+        <v>0.06797604534848195</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4212,19 +4212,19 @@
         <v>5837</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1998</v>
+        <v>2024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13161</v>
+        <v>13354</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01321176917225652</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004522741196324974</v>
+        <v>0.004580935920675972</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02978792013746702</v>
+        <v>0.03022410582505761</v>
       </c>
     </row>
     <row r="5">
@@ -4241,19 +4241,19 @@
         <v>285766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>280877</v>
+        <v>280441</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287824</v>
+        <v>287823</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9895693231822574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9726397788271762</v>
+        <v>0.9711283886508164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9966948891539426</v>
+        <v>0.9966922488997506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -4262,7 +4262,7 @@
         <v>150214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142963</v>
+        <v>142636</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>153039</v>
@@ -4271,7 +4271,7 @@
         <v>0.9815404358168452</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9341587475476547</v>
+        <v>0.9320239546515181</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4283,19 +4283,19 @@
         <v>435980</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>428656</v>
+        <v>428463</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>439819</v>
+        <v>439793</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9867882308277435</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9702120798625326</v>
+        <v>0.9697758941749421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.995477258803675</v>
+        <v>0.995419064079324</v>
       </c>
     </row>
     <row r="6">
@@ -4390,16 +4390,16 @@
         <v>920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8491</v>
+        <v>9210</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01307406858874285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003847544087378527</v>
+        <v>0.00384975912562511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03552606458784954</v>
+        <v>0.03853342189177181</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4408,19 +4408,19 @@
         <v>4244</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>999</v>
+        <v>1202</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10387</v>
+        <v>10337</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02217079127270675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005216910608851806</v>
+        <v>0.006279955930300188</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05426249923274868</v>
+        <v>0.05399979834664004</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -4429,19 +4429,19 @@
         <v>7369</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2956</v>
+        <v>3049</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13592</v>
+        <v>14304</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01711955102519514</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006866785348671476</v>
+        <v>0.007084292217886909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03157814133603238</v>
+        <v>0.03323249829196226</v>
       </c>
     </row>
     <row r="8">
@@ -4458,7 +4458,7 @@
         <v>235886</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>230520</v>
+        <v>229801</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>238091</v>
@@ -4467,10 +4467,10 @@
         <v>0.9869259314112572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9644739354121509</v>
+        <v>0.9614665781082282</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961524559126215</v>
+        <v>0.9961502408743749</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>175</v>
@@ -4479,19 +4479,19 @@
         <v>187177</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>181034</v>
+        <v>181084</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>190422</v>
+        <v>190219</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9778292087272933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9457375007672513</v>
+        <v>0.9460002016533597</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9947830893911482</v>
+        <v>0.9937200440696998</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>395</v>
@@ -4500,19 +4500,19 @@
         <v>423063</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>416840</v>
+        <v>416128</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>427476</v>
+        <v>427383</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9828804489748049</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9684218586639676</v>
+        <v>0.9667675017080377</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9931332146513285</v>
+        <v>0.992915707782113</v>
       </c>
     </row>
     <row r="9">
@@ -4604,19 +4604,19 @@
         <v>7581</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3394</v>
+        <v>2936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15650</v>
+        <v>14485</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02280668606058694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01020986329342013</v>
+        <v>0.008833106820445153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04708237776971898</v>
+        <v>0.0435773181497746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5594</v>
+        <v>4700</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02007602604827318</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1017307998436694</v>
+        <v>0.08546640580033266</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -4646,19 +4646,19 @@
         <v>8685</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4138</v>
+        <v>4089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16439</v>
+        <v>17527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02241907305580253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01068195628602511</v>
+        <v>0.01055451009711994</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04243504178648537</v>
+        <v>0.0452441864581823</v>
       </c>
     </row>
     <row r="11">
@@ -4675,19 +4675,19 @@
         <v>324816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>316747</v>
+        <v>317912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>329003</v>
+        <v>329461</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9771933139394131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9529176222302809</v>
+        <v>0.9564226818502256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9897901367065798</v>
+        <v>0.991166893179555</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -4696,7 +4696,7 @@
         <v>53885</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49395</v>
+        <v>50289</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>54989</v>
@@ -4705,7 +4705,7 @@
         <v>0.9799239739517268</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8982692001563307</v>
+        <v>0.9145335941996674</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4717,19 +4717,19 @@
         <v>378701</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>370947</v>
+        <v>369859</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>383248</v>
+        <v>383297</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9775809269441975</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9575649582135145</v>
+        <v>0.9547558135418176</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9893180437139748</v>
+        <v>0.9894454899028801</v>
       </c>
     </row>
     <row r="12">
@@ -4821,19 +4821,19 @@
         <v>11157</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5655</v>
+        <v>5492</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19691</v>
+        <v>19681</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01696303113774085</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008597589815478469</v>
+        <v>0.008349658191416687</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02993767624679619</v>
+        <v>0.02992235615930406</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6748</v>
+        <v>5627</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003740137615284107</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02269254380067825</v>
+        <v>0.01892276960379834</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -4863,19 +4863,19 @@
         <v>12269</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6366</v>
+        <v>6581</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21336</v>
+        <v>21250</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01284637774612291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006664866271898155</v>
+        <v>0.006890969809694703</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02233934014484821</v>
+        <v>0.02224942807484847</v>
       </c>
     </row>
     <row r="14">
@@ -4892,19 +4892,19 @@
         <v>646585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>638051</v>
+        <v>638061</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>652087</v>
+        <v>652250</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9830369688622591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9700623237532037</v>
+        <v>0.9700776438406959</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9914024101845215</v>
+        <v>0.9916503418085832</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>290</v>
@@ -4913,7 +4913,7 @@
         <v>296233</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>290597</v>
+        <v>291718</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>297345</v>
@@ -4922,7 +4922,7 @@
         <v>0.9962598623847159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9773074561993218</v>
+        <v>0.9810772303962018</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4934,19 +4934,19 @@
         <v>942819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>933752</v>
+        <v>933838</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>948722</v>
+        <v>948507</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.987153622253877</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9776606598551518</v>
+        <v>0.9777505719251514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9933351337281018</v>
+        <v>0.9931090301903053</v>
       </c>
     </row>
     <row r="15">
@@ -5038,19 +5038,19 @@
         <v>11153</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5197</v>
+        <v>5490</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19083</v>
+        <v>19581</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03524010467324896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01642025932629015</v>
+        <v>0.01734782684345173</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06029881559525248</v>
+        <v>0.06187075845778831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5633</v>
+        <v>5562</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005808887214736918</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02950643516502786</v>
+        <v>0.02913371842728351</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -5080,19 +5080,19 @@
         <v>12262</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6365</v>
+        <v>6197</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22012</v>
+        <v>21411</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02416580544637439</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01254381775694702</v>
+        <v>0.01221278143728058</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04338261405484781</v>
+        <v>0.04219705626535381</v>
       </c>
     </row>
     <row r="17">
@@ -5109,19 +5109,19 @@
         <v>305323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>297393</v>
+        <v>296895</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>311279</v>
+        <v>310986</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.964759895326751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9397011844047474</v>
+        <v>0.9381292415422116</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9835797406737098</v>
+        <v>0.9826521731565483</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -5130,7 +5130,7 @@
         <v>189814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185290</v>
+        <v>185361</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>190923</v>
@@ -5139,7 +5139,7 @@
         <v>0.9941911127852631</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9704935648349721</v>
+        <v>0.9708662815727165</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5151,19 +5151,19 @@
         <v>495137</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>485387</v>
+        <v>485988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>501034</v>
+        <v>501202</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9758341945536256</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9566173859451521</v>
+        <v>0.9578029437346463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.987456182243053</v>
+        <v>0.9877872185627194</v>
       </c>
     </row>
     <row r="18">
@@ -5255,19 +5255,19 @@
         <v>3984</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>961</v>
+        <v>1054</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9719</v>
+        <v>9848</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02475405613537193</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005970845861921949</v>
+        <v>0.006549701678458622</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06039302000052248</v>
+        <v>0.06119422453193198</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -5276,19 +5276,19 @@
         <v>5090</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1885</v>
+        <v>1844</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11109</v>
+        <v>11304</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0199854420520106</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007402059289821402</v>
+        <v>0.007241794636196656</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0436231195948527</v>
+        <v>0.04438757425102326</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -5297,19 +5297,19 @@
         <v>9073</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4812</v>
+        <v>4253</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16579</v>
+        <v>17042</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02183202375682886</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01157741773302622</v>
+        <v>0.01023248927645391</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03989244273322744</v>
+        <v>0.04100518509402775</v>
       </c>
     </row>
     <row r="20">
@@ -5326,19 +5326,19 @@
         <v>156949</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151214</v>
+        <v>151085</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159972</v>
+        <v>159879</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.975245943864628</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.939606979999477</v>
+        <v>0.9388057754680686</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.994029154138078</v>
+        <v>0.9934502983215414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -5347,19 +5347,19 @@
         <v>249571</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>243552</v>
+        <v>243357</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252776</v>
+        <v>252817</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9800145579479894</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9563768804051473</v>
+        <v>0.9556124257489765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9925979407101786</v>
+        <v>0.9927582053638033</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>391</v>
@@ -5368,19 +5368,19 @@
         <v>406521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>399015</v>
+        <v>398552</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>410782</v>
+        <v>411341</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9781679762431711</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9601075572667728</v>
+        <v>0.9589948149059724</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9884225822669739</v>
+        <v>0.9897675107235462</v>
       </c>
     </row>
     <row r="21">
@@ -5472,19 +5472,19 @@
         <v>40012</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27478</v>
+        <v>28724</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54951</v>
+        <v>55638</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02005253585148258</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01377100522932962</v>
+        <v>0.01439555871567928</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02753975246395328</v>
+        <v>0.0278837798034082</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -5493,19 +5493,19 @@
         <v>15484</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8548</v>
+        <v>8357</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26408</v>
+        <v>26029</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01355385226682</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007482441343047521</v>
+        <v>0.007315477448114203</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02311683517887536</v>
+        <v>0.02278508918993501</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -5514,19 +5514,19 @@
         <v>55495</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41768</v>
+        <v>42246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72381</v>
+        <v>73152</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01768649829916908</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01331162047931117</v>
+        <v>0.01346381283641787</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02306791668948643</v>
+        <v>0.02331370279098982</v>
       </c>
     </row>
     <row r="23">
@@ -5543,19 +5543,19 @@
         <v>1955325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1940386</v>
+        <v>1939699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1967859</v>
+        <v>1966613</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9799474641485174</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9724602475360471</v>
+        <v>0.9721162201965921</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9862289947706706</v>
+        <v>0.9856044412843209</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1078</v>
@@ -5564,19 +5564,19 @@
         <v>1126894</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1115970</v>
+        <v>1116349</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1133830</v>
+        <v>1134021</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.98644614773318</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9768831648211239</v>
+        <v>0.9772149108100648</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9925175586569522</v>
+        <v>0.9926845225518857</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2930</v>
@@ -5585,19 +5585,19 @@
         <v>3082220</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3065334</v>
+        <v>3064563</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3095947</v>
+        <v>3095469</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9823135017008309</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9769320833105133</v>
+        <v>0.9766862972090102</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9866883795206887</v>
+        <v>0.9865361871635822</v>
       </c>
     </row>
     <row r="24">
@@ -5931,19 +5931,19 @@
         <v>6353</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2848</v>
+        <v>2758</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12889</v>
+        <v>13044</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02110039287641092</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009460464680949091</v>
+        <v>0.009160832901415507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0428115625894343</v>
+        <v>0.04332569067453075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5952,19 +5952,19 @@
         <v>2278</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6399</v>
+        <v>6712</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01334144587538473</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003154079804869019</v>
+        <v>0.003198668585831409</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03747283540907276</v>
+        <v>0.03930923059342816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -5973,19 +5973,19 @@
         <v>8631</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4364</v>
+        <v>4528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14776</v>
+        <v>15656</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01829236596060692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009248298993635901</v>
+        <v>0.009597072168567453</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03131815350356261</v>
+        <v>0.03318290491867643</v>
       </c>
     </row>
     <row r="5">
@@ -6002,19 +6002,19 @@
         <v>294710</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>288174</v>
+        <v>288019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>298215</v>
+        <v>298305</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9788996071235891</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9571884374105657</v>
+        <v>0.9566743093254689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9905395353190509</v>
+        <v>0.9908391670985842</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -6023,19 +6023,19 @@
         <v>168477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>164356</v>
+        <v>164043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170216</v>
+        <v>170209</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9866585541246152</v>
+        <v>0.9866585541246153</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9625271645909274</v>
+        <v>0.9606907694065718</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9968459201951311</v>
+        <v>0.9968013314141685</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>533</v>
@@ -6044,19 +6044,19 @@
         <v>463186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>457041</v>
+        <v>456161</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>467453</v>
+        <v>467289</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.981707634039393</v>
+        <v>0.9817076340393932</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9686818464964374</v>
+        <v>0.9668170950813236</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.990751701006364</v>
+        <v>0.9904029278314326</v>
       </c>
     </row>
     <row r="6">
@@ -6148,19 +6148,19 @@
         <v>2574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7537</v>
+        <v>7183</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01152486216796372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00315434407190891</v>
+        <v>0.003127419052577889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03374310125813503</v>
+        <v>0.03215925077181905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -6169,19 +6169,19 @@
         <v>4050</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1452</v>
+        <v>1523</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8158</v>
+        <v>8384</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02820634380324253</v>
+        <v>0.02820634380324252</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01011121455994773</v>
+        <v>0.01060573495713469</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05682082649982027</v>
+        <v>0.05839634367551098</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -6190,19 +6190,19 @@
         <v>6624</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3005</v>
+        <v>3291</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11948</v>
+        <v>13473</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0180518687696089</v>
+        <v>0.01805186876960891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008189138863821445</v>
+        <v>0.008968159021243902</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03256172176040502</v>
+        <v>0.03671842932425003</v>
       </c>
     </row>
     <row r="8">
@@ -6219,19 +6219,19 @@
         <v>220788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>215825</v>
+        <v>216179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>222657</v>
+        <v>222663</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9884751378320362</v>
+        <v>0.9884751378320363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.966256898741865</v>
+        <v>0.9678407492281808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9968456559280909</v>
+        <v>0.9968725809474221</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>199</v>
@@ -6240,19 +6240,19 @@
         <v>139521</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>135413</v>
+        <v>135187</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>142119</v>
+        <v>142048</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9717936561967572</v>
+        <v>0.9717936561967574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9431791735001797</v>
+        <v>0.9416036563244891</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9898887854400524</v>
+        <v>0.9893942650428652</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>420</v>
@@ -6261,19 +6261,19 @@
         <v>360309</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>354985</v>
+        <v>353460</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>363928</v>
+        <v>363642</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9819481312303909</v>
+        <v>0.981948131230391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9674382782395949</v>
+        <v>0.9632815706757496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9918108611361786</v>
+        <v>0.9910318409787561</v>
       </c>
     </row>
     <row r="9">
@@ -6365,19 +6365,19 @@
         <v>4151</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9175</v>
+        <v>9142</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01819872851548794</v>
+        <v>0.01819872851548793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006967273167043082</v>
+        <v>0.006960276956160481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0402239345400144</v>
+        <v>0.04007667209525801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -6399,19 +6399,19 @@
         <v>4151</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1557</v>
+        <v>1607</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9020</v>
+        <v>9497</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01511354287876385</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005668209158765137</v>
+        <v>0.005852131695498817</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03283882984621327</v>
+        <v>0.03457598448541699</v>
       </c>
     </row>
     <row r="11">
@@ -6428,19 +6428,19 @@
         <v>223958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>218934</v>
+        <v>218967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>226520</v>
+        <v>226521</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9818012714845121</v>
+        <v>0.981801271484512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9597760654599856</v>
+        <v>0.959923327904742</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9930327268329571</v>
+        <v>0.9930397230438394</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -6462,19 +6462,19 @@
         <v>270523</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>265654</v>
+        <v>265177</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>273117</v>
+        <v>273067</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9848864571212362</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9671611701537867</v>
+        <v>0.9654240155145827</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9943317908412349</v>
+        <v>0.9941478683045012</v>
       </c>
     </row>
     <row r="12">
@@ -6566,19 +6566,19 @@
         <v>11461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6493</v>
+        <v>5881</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20763</v>
+        <v>19889</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02121282668441792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01201840677660021</v>
+        <v>0.01088586343294521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0384304282441617</v>
+        <v>0.03681284248963283</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -6587,19 +6587,19 @@
         <v>6525</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2178</v>
+        <v>2269</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14524</v>
+        <v>15028</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02859176290849049</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009543727090466051</v>
+        <v>0.009940608228575534</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06364489731821688</v>
+        <v>0.06585401861432028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -6608,19 +6608,19 @@
         <v>17986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10493</v>
+        <v>11561</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28664</v>
+        <v>28698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02340408588151005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01365467365322201</v>
+        <v>0.01504366630099016</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03729929457183746</v>
+        <v>0.03734439951670546</v>
       </c>
     </row>
     <row r="14">
@@ -6637,19 +6637,19 @@
         <v>528810</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>519508</v>
+        <v>520382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>533778</v>
+        <v>534390</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.978787173315582</v>
+        <v>0.9787871733155822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9615695717558385</v>
+        <v>0.9631871575103671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9879815932233997</v>
+        <v>0.9891141365670547</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>290</v>
@@ -6658,19 +6658,19 @@
         <v>221684</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>213685</v>
+        <v>213181</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>226031</v>
+        <v>225940</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9714082370915097</v>
+        <v>0.9714082370915095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9363551026817827</v>
+        <v>0.9341459813856782</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9904562729095339</v>
+        <v>0.9900593917714244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>797</v>
@@ -6679,19 +6679,19 @@
         <v>750494</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739816</v>
+        <v>739782</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>757987</v>
+        <v>756919</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.97659591411849</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9627007054281628</v>
+        <v>0.9626556004832949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9863453263467779</v>
+        <v>0.9849563336990098</v>
       </c>
     </row>
     <row r="15">
@@ -6783,19 +6783,19 @@
         <v>5023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2367</v>
+        <v>2253</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10361</v>
+        <v>10822</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01954376650744926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009211303607884486</v>
+        <v>0.008765822907177151</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04031627259663142</v>
+        <v>0.04210940547567221</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6804,19 +6804,19 @@
         <v>2607</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>943</v>
+        <v>976</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6121</v>
+        <v>6017</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01701104318323896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006154650022789335</v>
+        <v>0.006367222152065476</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03994115238393205</v>
+        <v>0.03926453727751805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -6825,19 +6825,19 @@
         <v>7630</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3850</v>
+        <v>4049</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13832</v>
+        <v>13213</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01859765482087438</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009384011609833966</v>
+        <v>0.009870734515602773</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03371763977904454</v>
+        <v>0.03220836183650074</v>
       </c>
     </row>
     <row r="17">
@@ -6854,19 +6854,19 @@
         <v>251971</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>246633</v>
+        <v>246172</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>254627</v>
+        <v>254741</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9804562334925507</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9596837274033688</v>
+        <v>0.957890594524328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9907886963921155</v>
+        <v>0.9912341770928227</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -6875,19 +6875,19 @@
         <v>150641</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>147127</v>
+        <v>147231</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152305</v>
+        <v>152272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.982988956816761</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9600588476160682</v>
+        <v>0.9607354627224826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9938453499772106</v>
+        <v>0.9936327778479346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>439</v>
@@ -6896,19 +6896,19 @@
         <v>402612</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>396410</v>
+        <v>397029</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>406392</v>
+        <v>406193</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9814023451791256</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9662823602209555</v>
+        <v>0.9677916381634996</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9906159883901661</v>
+        <v>0.9901292654843973</v>
       </c>
     </row>
     <row r="18">
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01758503354373064</v>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11201</v>
+        <v>11242</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01047514821680705</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05275629413493441</v>
+        <v>0.05294834056111963</v>
       </c>
     </row>
     <row r="20">
@@ -7076,16 +7076,16 @@
         <v>124247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116368</v>
+        <v>115401</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>126471</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9824149664562694</v>
+        <v>0.9824149664562692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.920116078439642</v>
+        <v>0.912466621481074</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7097,16 +7097,16 @@
         <v>210088</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>201111</v>
+        <v>201070</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>212312</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9895248517831928</v>
+        <v>0.9895248517831927</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9472437058650656</v>
+        <v>0.9470516594388799</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -7201,19 +7201,19 @@
         <v>29561</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20481</v>
+        <v>21370</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41481</v>
+        <v>42039</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01807327042424096</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01252171070347971</v>
+        <v>0.01306543519242304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02536093915100514</v>
+        <v>0.02570204145146243</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -7222,19 +7222,19 @@
         <v>17684</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10689</v>
+        <v>11089</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28516</v>
+        <v>29739</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02035353911189794</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01230293396008516</v>
+        <v>0.01276349923927324</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03282127531286089</v>
+        <v>0.03422870956001325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -7243,19 +7243,19 @@
         <v>47245</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35532</v>
+        <v>35402</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62549</v>
+        <v>62834</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01886431541697703</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01418748118320443</v>
+        <v>0.01413539856958353</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02497511007334106</v>
+        <v>0.02508891892222791</v>
       </c>
     </row>
     <row r="23">
@@ -7272,19 +7272,19 @@
         <v>1606079</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1594159</v>
+        <v>1593601</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1615159</v>
+        <v>1614270</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9819267295757592</v>
+        <v>0.981926729575759</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9746390608489945</v>
+        <v>0.9742979585485376</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9874782892965203</v>
+        <v>0.986934564807577</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1149</v>
@@ -7293,19 +7293,19 @@
         <v>851134</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>840302</v>
+        <v>839079</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>858129</v>
+        <v>857729</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9796464608881021</v>
+        <v>0.9796464608881019</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9671787246871394</v>
+        <v>0.9657712904399869</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9876970660399147</v>
+        <v>0.9872365007607269</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2666</v>
@@ -7314,19 +7314,19 @@
         <v>2457213</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2441909</v>
+        <v>2441624</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2468926</v>
+        <v>2469056</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9811356845830231</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9750248899266589</v>
+        <v>0.9749110810777721</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9858125188167955</v>
+        <v>0.9858646014304165</v>
       </c>
     </row>
     <row r="24">
